--- a/data/Map113.xlsx
+++ b/data/Map113.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
   <si>
     <t>自動実行</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>リリー</t>
+  </si>
+  <si>
+    <t>Rewrite     -   Lily</t>
   </si>
   <si>
     <t>EV011</t>
@@ -720,7 +723,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,22 +731,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -751,486 +754,489 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map113.xlsx
+++ b/data/Map113.xlsx
@@ -151,7 +151,7 @@
     <t>リリー</t>
   </si>
   <si>
-    <t>Rewrite     -   Lily</t>
+    <t>Lily</t>
   </si>
   <si>
     <t>EV011</t>

--- a/data/Map113.xlsx
+++ b/data/Map113.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>自動実行</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>・・・</t>
+  </si>
+  <si>
+    <t>...</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;どかないにゃん。
@@ -723,7 +726,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -731,22 +734,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -754,165 +757,168 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="C35" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -920,157 +926,157 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -1078,165 +1084,168 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map113.xlsx
+++ b/data/Map113.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t>自動実行</t>
   </si>
@@ -34,6 +34,13 @@
 開け方が分からない。</t>
   </si>
   <si>
+    <t>変数203（ARGP攻撃種類）
+1斬　2打撃　3水　4火　5雷
+6誘惑　7食べ物
+特殊206（個別攻撃種類）
+1リンゴ　2皿　3卵</t>
+  </si>
+  <si>
     <t>小説</t>
   </si>
   <si>
@@ -114,6 +121,11 @@
   </si>
   <si>
     <t>だめだ・・・
+戦えない・・・
+\C[14]※SAN値が6以上必要です。（現在SAN値\v[270]）</t>
+  </si>
+  <si>
+    <t>だめだ・・・
 戦えない・・・</t>
   </si>
   <si>
@@ -270,6 +282,12 @@
     <t>EV031</t>
   </si>
   <si>
+    <t>--------キャラ指定-----座標設定------------</t>
+  </si>
+  <si>
+    <t>----------------------------------------</t>
+  </si>
+  <si>
     <t>どいて</t>
   </si>
   <si>
@@ -289,6 +307,12 @@
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;通りたかったら遊びに付き合うにゃ。</t>
+  </si>
+  <si>
+    <t>ーーーーー待機or攻撃アニメSE選択ーーーーー</t>
+  </si>
+  <si>
+    <t>--------ここから誘惑------------</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;ちゅっ♥
@@ -726,7 +750,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -734,22 +758,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -757,495 +790,757 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" t="s">
         <v>35</v>
       </c>
-      <c r="D35" t="s">
+      <c r="B35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="D69" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map113.xlsx
+++ b/data/Map113.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368DDADB-50CB-4D07-AC4B-8453E916409C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="192">
   <si>
     <t>自動実行</t>
   </si>
@@ -413,21 +419,354 @@
     <t>徘徊しているリリー、シィナ、ライムを倒して、
 その後はそれぞれ自室にいるので更に倒すと・・・</t>
   </si>
+  <si>
+    <t>A strangely shaped door.
+It's most likely mechanical.
+It's not clear how to open it.</t>
+  </si>
+  <si>
+    <t>A cage...
+The lattice has bite marks all over...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(You really wanted to escape.
+Same as me... I need to get out of here...)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(It's some kind of cat cage...
+A cat...?
+It couldn't be...)</t>
+  </si>
+  <si>
+    <t>You can see the forest from the window...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(It won't open.
+Even if it did, it's too high to jump...)</t>
+  </si>
+  <si>
+    <t>Some spears are propped up...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(I've never used one before, but...
+Maybe I should take one with me.)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(A spear...
+I can use them, but its use is limited indoors.
+I'll take one just in case.)</t>
+  </si>
+  <si>
+    <t>The tip broke off...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(So much for that.)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Only the tip came off...)</t>
+  </si>
+  <si>
+    <t>A knight statue...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(This doesn't really match the rest of the room.)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(How cool. I need to redecorate my room...)</t>
+  </si>
+  <si>
+    <t>This is...!
+All your equipment!!
+It's all right here...!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Let me give you a word of advice. The moment you
+pick up that gear, you won't be a semen slave any longer.
+You'll be a succubus hunter.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;If you want to fulfill your original goal, be my guest.
+However, I won't hold back when you ejaculate. I'll drain you
+until you die. I don't want to hear a word of complaint.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;This is your last chance. 
+If you want to go back and be a semen slave, just close 
+the chest. The choice is yours.</t>
+  </si>
+  <si>
+    <t>Take equipment ↑6 SAN</t>
+  </si>
+  <si>
+    <t>Close the lid</t>
+  </si>
+  <si>
+    <t>No...
+I can't fight...
+\C[14]※SAN 6 or higher is required. (Current SAN: \v[270])</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Ahhh.
+I didn't think you were this foolish.
+Oh dear.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Well, it couldn't be helped.
+I'll drain you dry, fair and square.
+Be sure to struggle in vain until the very end.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;A wise decision.
+I didn't really want to have to kill you.
+Plus, it's a hassle to find a new semen slave.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Fufu♥
+I don't dislike weak little humans.</t>
+  </si>
+  <si>
+    <t>You have all your equipment...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;There we go.
+Close that now.
+A semen slave doesn't need to be concerned with that.</t>
+  </si>
+  <si>
+    <t>The envelope is sealed with a black lily crest.</t>
+  </si>
+  <si>
+    <t>\C[3]※You've progressed to the Hunter Battle phase.
+\C[0]From now on, touching Lily, Shina or Lime will begin
+a battle. If you lose, it's game over.</t>
+  </si>
+  <si>
+    <t>How to battle succubi</t>
+  </si>
+  <si>
+    <t>Basics</t>
+  </si>
+  <si>
+    <t>Status effects</t>
+  </si>
+  <si>
+    <t>If your energy reaches 0, you will ejaculate, and lose.
+If your opponent's energy reaches 0, she will orgasm, \nand you will win.</t>
+  </si>
+  <si>
+    <t>Slip damage</t>
+  </si>
+  <si>
+    <t>Due to slip damage, your energy will slowly decrease
+while you are choosing a command.
+Choose how to act quickly.</t>
+  </si>
+  <si>
+    <t>Slip damage will never decrease your energy to 0.
+Slip damage will vary depending on your opponent.
+If you press CTRL, you will receive damage more quickly.</t>
+  </si>
+  <si>
+    <t>Excited: Cannot defend
+Aroused: Slip damage is doubled
+Aphrodisiac: Lose energy each turn</t>
+  </si>
+  <si>
+    <t>Restrained: Unable to move (1～3 Turns)
+Charmed: Unable to move (1～3 Turns)
+Fear: Unable to move (1 Turn)</t>
+  </si>
+  <si>
+    <t>Stats</t>
+  </si>
+  <si>
+    <t>Attack: Affects caress damage
+Technique: Affects skill damage</t>
+  </si>
+  <si>
+    <t>Defense: Reduces damage from direct stimulation
+Willpower: Reduces damage from mental attacks, and slip damage</t>
+  </si>
+  <si>
+    <t>Speed: Impacts your ability to avoid traps and special moves
+Combat power: Affects the damage of your A key attack \n(Not used in Succubus Battles)</t>
+  </si>
+  <si>
+    <t>Lily's Diary</t>
+  </si>
+  <si>
+    <t>Lily's Diary
+Meeting Shina</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Don't read</t>
+  </si>
+  <si>
+    <t>Difficult looking books line the shelf...</t>
+  </si>
+  <si>
+    <t>Fancy clothes are hung up...</t>
+  </si>
+  <si>
+    <t>Nothing else useful...</t>
+  </si>
+  <si>
+    <t>Various decorations are displayed...</t>
+  </si>
+  <si>
+    <t>Books on monsters line the shelf...</t>
+  </si>
+  <si>
+    <t>The plant gazes bitterly out the window...</t>
+  </si>
+  <si>
+    <t>A houseplant...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I ain't moving, nyan.
+Did you want me to step aside, nyaan?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;What, you want to complain, nyan?
+If I just block this door, you can't go anywhere, nya.
+That's using my brain. Pretty smart, nyah?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;If you want to pass by, play with me, nya.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Smooch♥
+How's this, nya? Smooch♥ Smooch♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;There's no way you'll cum from just this, nya?
+Nyaaa?
+Chuuu♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;How does it feel having your cock smooched, nya?
+Smooch♥ Smooch♥
+Are you so aroused you don't want to get away, nyan?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Nyaha♥ That look on your face, nya♥
+You're bright red, nyaan♥
+Smooch♥ How can you ever endure these cock kisses, nya?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;No good, nyaan.
+There's no escaping my kisses, nya♥
+Smooch♥ Smooch♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahh, now that was fun.
+You can go now, nyan.
+I'm all good.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Haah... Haah...♥
+Uuuuh...♥ I'm... About to cum...
+Gotta... Get away...♥)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Haah... Haah...
+Uuuuh...♥ D-dammit...♥
+Gotta... Get away...)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;What is it, nya?
+I told you you could leave, nyan.</t>
+  </si>
+  <si>
+    <t>\C[10]Let me cum...</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;No, nya.</t>
+  </si>
+  <si>
+    <t>\C[10]Please let me cum</t>
+  </si>
+  <si>
+    <t>That's enough</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I'm your enemy, nyan.
+Why would you ask that of your enemy, nya?</t>
+  </si>
+  <si>
+    <t>\C[10]Mistress Shina, please let me cum</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Can't be helped, nyaa.
+Then it's time for the kiss of death.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I'm telling Lily and Lime that you begged
+me to let you cum♥
+Nyahahahaha♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Let's get back to the escape game, nya.</t>
+  </si>
+  <si>
+    <t>How to open the mechanical door...</t>
+  </si>
+  <si>
+    <t>See answer</t>
+  </si>
+  <si>
+    <t>It will open when struck with an electrical attack.</t>
+  </si>
+  <si>
+    <t>How to complete the Hunter phase...</t>
+  </si>
+  <si>
+    <t>Defeat Lily, Shina and Lime as they wander around,
+then go to their rooms and defeat them once more...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;I should let you know.
+You don't realize what it means for you to take that.</t>
+  </si>
+  <si>
+    <t>Energy: When it reaches 0, you will ejaculate, and lose.
+HP: Required to use skills. Will recover a little each turn.
+TP: Required to use some skills. Increases each turn.</t>
+  </si>
+  <si>
+    <t>Caress: Attack without spending HP
+Skills: Target enemy weakpoints by attacking breasts, butt, pussy, etc.</t>
+  </si>
+  <si>
+    <t>Sensitive: Damage received is increased
+Weakness: Damage dealth is reduced
+Darkness: Accuracy is halved. Skills cost 1.5x HP</t>
+  </si>
+  <si>
+    <t>Step aside</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -435,28 +774,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -746,19 +1100,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:B103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B95" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="69.28515625" customWidth="1"/>
+    <col min="2" max="2" width="69.85546875" customWidth="1"/>
+    <col min="3" max="3" width="69.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -766,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -774,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -782,7 +1138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -790,20 +1146,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="C5" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -811,219 +1170,315 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+      <c r="C27" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+      <c r="C28" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+      <c r="B29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+      <c r="B31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="B32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+      <c r="C33" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+      <c r="C34" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1031,7 +1486,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1039,7 +1494,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1047,239 +1502,326 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
+      <c r="C39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -1287,207 +1829,291 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>75</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>76</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>77</v>
       </c>
       <c r="B75" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
+    <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
+      <c r="C78" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
+      <c r="C79" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
+      <c r="C80" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
+      <c r="C81" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
+      <c r="B82" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
+      <c r="B83" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
+      <c r="B84" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="B85" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>88</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="C86" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>89</v>
       </c>
       <c r="B87" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>90</v>
       </c>
       <c r="B88" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="C88" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>91</v>
       </c>
       <c r="B89" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>92</v>
       </c>
       <c r="B90" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>93</v>
       </c>
       <c r="B91" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>94</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>95</v>
       </c>
       <c r="B93" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="C93" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>96</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="C94" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>97</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="C95" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>98</v>
       </c>
       <c r="B96" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -1495,31 +2121,40 @@
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>100</v>
       </c>
       <c r="B98" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="C98" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>101</v>
       </c>
       <c r="B99" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="C99" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>102</v>
       </c>
       <c r="B100" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -1527,34 +2162,30 @@
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>104</v>
       </c>
       <c r="B102" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>105</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="C103" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>